--- a/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0E386E-D6F4-4319-8767-20D64CE6A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3859B93-C119-4BC6-8B15-DD5113F529EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7065" windowWidth="29040" windowHeight="15225" xr2:uid="{9F04672B-035C-4094-833B-C96BF4B01A2F}"/>
+    <workbookView xWindow="2085" yWindow="3090" windowWidth="24675" windowHeight="15405" xr2:uid="{9F04672B-035C-4094-833B-C96BF4B01A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,73 +123,119 @@
     <t>leek</t>
   </si>
   <si>
+    <t>commonMushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달걀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>largeEgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>largeMilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 달걀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\WildHorseradish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Daffodil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Leek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Dandelion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dandelion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>springOnion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\SpringOnion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>morel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Morel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\CommonMushroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>salmonberry</t>
-  </si>
-  <si>
-    <t>commonMushroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>everywhere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CindersapForest</t>
-  </si>
-  <si>
-    <t>SecretForest</t>
-  </si>
-  <si>
-    <t>Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>milk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달걀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>largeEgg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>largeMilk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰 우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰 달걀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Salmonberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\LargeMilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Egg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\LargeEgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Gathering\Sap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836630F-6801-4250-99E0-282BC3714C44}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -610,9 +656,10 @@
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,8 +690,11 @@
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,10 +723,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3000</v>
       </c>
@@ -704,11 +757,14 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3001</v>
       </c>
@@ -736,11 +792,14 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3002</v>
       </c>
@@ -768,11 +827,14 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3003</v>
       </c>
@@ -786,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2">
         <v>120</v>
@@ -800,11 +862,14 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3004</v>
       </c>
@@ -818,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
@@ -832,11 +897,14 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3005</v>
       </c>
@@ -850,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>450</v>
@@ -864,11 +932,14 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3006</v>
       </c>
@@ -882,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>120</v>
@@ -896,11 +967,14 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3007</v>
       </c>
@@ -914,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
@@ -928,16 +1002,19 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3">
         <v>38</v>
@@ -946,7 +1023,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3">
         <v>375</v>
@@ -961,15 +1038,18 @@
         <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>50</v>
@@ -978,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3">
         <v>570</v>
@@ -993,15 +1073,18 @@
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>3010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>25</v>
@@ -1010,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3">
         <v>150</v>
@@ -1025,15 +1108,18 @@
         <v>5</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>38</v>
@@ -1042,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
         <v>285</v>
@@ -1057,15 +1143,18 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>-2</v>
@@ -1074,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1089,7 +1178,10 @@
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3859B93-C119-4BC6-8B15-DD5113F529EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="3090" windowWidth="24675" windowHeight="15405" xr2:uid="{9F04672B-035C-4094-833B-C96BF4B01A2F}"/>
+    <workbookView xWindow="2085" yWindow="3090" windowWidth="24675" windowHeight="15405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,8 +31,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>현</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스폰시즌
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스폰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> X
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,14 +320,182 @@
   </si>
   <si>
     <t>Prefabs\OtherObject\Gathering\Sap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전형적인 봄꽃으로, 선물로도 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파의 맛있는 친척.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 예쁜 꽃은 아니지만, 잎으로 맛있는 샐러드를 만들 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류 향 때문에 인기가 좋은 버섯.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 야생에서 자랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살짝 견과 향이 나고 질감이 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 풍미가 나는 봄철 베리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄에 볼 수 있는 매콤한 식물 뿌리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유 한 통.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유가 가득한 큰 통.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 갈색 달걀.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔치 않은 크기의 갈색 달걀입니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무에서 채취한 액체.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스닙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜리플라워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튤립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근과 비슷한, 봄철 덩이줄기 식물. 대지의 맛이 나고 영양분이 듬뿍 들어있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값이 비싸지만, 천천히 자랍니다. 창백한 색과는 다르게, 꽃 부분에 영양소가 풍부합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원하고 바삭한 맛이 있는 통통한 콩.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프나 볶음요리에 알맞은 잎사귀.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널리 재배되는 덩이줄기 식물.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 많은 수의 나비를 받아들이기 위해 꽃이 구형으로 자랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 인기 있는 봄철 꽃. 은은하게 달콤한 향이 납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsnip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cauliflower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueJazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tulip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Parsnip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Cauliflower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Greenbean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Kale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Potato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Bluejazz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Tulip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +511,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +609,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836630F-6801-4250-99E0-282BC3714C44}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,11 +944,12 @@
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,8 +983,11 @@
       <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,8 +1021,11 @@
       <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3000</v>
       </c>
@@ -755,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -763,8 +1059,11 @@
       <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3001</v>
       </c>
@@ -790,7 +1089,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -798,8 +1097,11 @@
       <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3002</v>
       </c>
@@ -825,7 +1127,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -833,8 +1135,11 @@
       <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3003</v>
       </c>
@@ -860,7 +1165,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -868,8 +1173,11 @@
       <c r="K6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3004</v>
       </c>
@@ -895,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -903,8 +1211,11 @@
       <c r="K7" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3005</v>
       </c>
@@ -930,7 +1241,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -938,8 +1249,11 @@
       <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3006</v>
       </c>
@@ -965,7 +1279,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -973,8 +1287,11 @@
       <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3007</v>
       </c>
@@ -1008,8 +1325,11 @@
       <c r="K10" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3008</v>
       </c>
@@ -1043,8 +1363,11 @@
       <c r="K11" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3009</v>
       </c>
@@ -1078,8 +1401,11 @@
       <c r="K12" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>3010</v>
       </c>
@@ -1113,8 +1439,11 @@
       <c r="K13" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3011</v>
       </c>
@@ -1148,8 +1477,11 @@
       <c r="K14" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3012</v>
       </c>
@@ -1182,10 +1514,281 @@
       </c>
       <c r="K15" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3013</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2">
+        <v>105</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>3014</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2">
+        <v>525</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>175</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>3015</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>3016</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2">
+        <v>330</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>110</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>3017</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2">
+        <v>240</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>3018</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2">
+        <v>150</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>50</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3019</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/gathering_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,22 @@
   </si>
   <si>
     <t>Prefabs\OtherObject\Farming\Tulip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\OtherObject\Farming\Wool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드럽고 푹신푹신한 양털.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +556,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +634,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection sqref="A1:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1333,7 +1358,7 @@
       <c r="A11" s="2">
         <v>3008</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3">
@@ -1371,7 +1396,7 @@
       <c r="A12" s="2">
         <v>3009</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
@@ -1409,7 +1434,7 @@
       <c r="A13" s="2">
         <v>3010</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="2">
@@ -1447,7 +1472,7 @@
       <c r="A14" s="2">
         <v>3011</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2">
@@ -1485,7 +1510,7 @@
       <c r="A15" s="2">
         <v>3012</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
@@ -1783,6 +1808,44 @@
       </c>
       <c r="L22" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>3020</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="3">
+        <v>180</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
